--- a/counts/ALS Mice/experimental/results/tg_1-tg_2/Results edgeR.xlsx
+++ b/counts/ALS Mice/experimental/results/tg_1-tg_2/Results edgeR.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="867">
   <si>
     <t>header</t>
   </si>
@@ -69,6 +69,12 @@
     <t>entrez</t>
   </si>
   <si>
+    <t>GOID</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
     <t>ENSMUSG00000000263</t>
   </si>
   <si>
@@ -2143,6 +2149,471 @@
   </si>
   <si>
     <t>320026</t>
+  </si>
+  <si>
+    <t>GO:0001508</t>
+  </si>
+  <si>
+    <t>GO:0001965</t>
+  </si>
+  <si>
+    <t>GO:0001046</t>
+  </si>
+  <si>
+    <t>GO:0005737</t>
+  </si>
+  <si>
+    <t>GO:0000978</t>
+  </si>
+  <si>
+    <t>GO:0000981</t>
+  </si>
+  <si>
+    <t>GO:0003779</t>
+  </si>
+  <si>
+    <t>GO:0005575</t>
+  </si>
+  <si>
+    <t>GO:0004890</t>
+  </si>
+  <si>
+    <t>GO:0005178</t>
+  </si>
+  <si>
+    <t>GO:0005576</t>
+  </si>
+  <si>
+    <t>GO:0001669</t>
+  </si>
+  <si>
+    <t>GO:0003674</t>
+  </si>
+  <si>
+    <t>GO:0004601</t>
+  </si>
+  <si>
+    <t>GO:0000166</t>
+  </si>
+  <si>
+    <t>GO:0000801</t>
+  </si>
+  <si>
+    <t>GO:0001701</t>
+  </si>
+  <si>
+    <t>GO:0000122</t>
+  </si>
+  <si>
+    <t>GO:0005886</t>
+  </si>
+  <si>
+    <t>GO:0005096</t>
+  </si>
+  <si>
+    <t>GO:0004177</t>
+  </si>
+  <si>
+    <t>GO:0005385</t>
+  </si>
+  <si>
+    <t>GO:0000187</t>
+  </si>
+  <si>
+    <t>GO:0001666</t>
+  </si>
+  <si>
+    <t>GO:0002376</t>
+  </si>
+  <si>
+    <t>GO:0002020</t>
+  </si>
+  <si>
+    <t>GO:0001837</t>
+  </si>
+  <si>
+    <t>GO:0001502</t>
+  </si>
+  <si>
+    <t>GO:0000398</t>
+  </si>
+  <si>
+    <t>GO:0002244</t>
+  </si>
+  <si>
+    <t>GO:0003723</t>
+  </si>
+  <si>
+    <t>GO:0005623</t>
+  </si>
+  <si>
+    <t>GO:0002151</t>
+  </si>
+  <si>
+    <t>GO:0004869</t>
+  </si>
+  <si>
+    <t>GO:0000413</t>
+  </si>
+  <si>
+    <t>GO:0001919</t>
+  </si>
+  <si>
+    <t>GO:0004871</t>
+  </si>
+  <si>
+    <t>GO:0000155</t>
+  </si>
+  <si>
+    <t>GO:0004143</t>
+  </si>
+  <si>
+    <t>GO:0003714</t>
+  </si>
+  <si>
+    <t>GO:0000785</t>
+  </si>
+  <si>
+    <t>GO:0003676</t>
+  </si>
+  <si>
+    <t>GO:0005249</t>
+  </si>
+  <si>
+    <t>GO:0003677</t>
+  </si>
+  <si>
+    <t>GO:0005768</t>
+  </si>
+  <si>
+    <t>GO:0007155</t>
+  </si>
+  <si>
+    <t>GO:0001934</t>
+  </si>
+  <si>
+    <t>GO:0005615</t>
+  </si>
+  <si>
+    <t>GO:0000982</t>
+  </si>
+  <si>
+    <t>GO:0000272</t>
+  </si>
+  <si>
+    <t>GO:0004383</t>
+  </si>
+  <si>
+    <t>GO:0003431</t>
+  </si>
+  <si>
+    <t>GO:0001662</t>
+  </si>
+  <si>
+    <t>GO:0005509</t>
+  </si>
+  <si>
+    <t>GO:0005216</t>
+  </si>
+  <si>
+    <t>GO:0000794</t>
+  </si>
+  <si>
+    <t>GO:0005344</t>
+  </si>
+  <si>
+    <t>GO:0001750</t>
+  </si>
+  <si>
+    <t>GO:0008146</t>
+  </si>
+  <si>
+    <t>GO:0005515</t>
+  </si>
+  <si>
+    <t>GO:0001104</t>
+  </si>
+  <si>
+    <t>GO:0001518</t>
+  </si>
+  <si>
+    <t>GO:0000027</t>
+  </si>
+  <si>
+    <t>GO:0001764</t>
+  </si>
+  <si>
+    <t>GO:0001222</t>
+  </si>
+  <si>
+    <t>GO:0000149</t>
+  </si>
+  <si>
+    <t>GO:0004252</t>
+  </si>
+  <si>
+    <t>GO:0003009</t>
+  </si>
+  <si>
+    <t>GO:0005452</t>
+  </si>
+  <si>
+    <t>GO:0000904</t>
+  </si>
+  <si>
+    <t>GO:0004867</t>
+  </si>
+  <si>
+    <t>GO:0000445</t>
+  </si>
+  <si>
+    <t>GO:0000813</t>
+  </si>
+  <si>
+    <t>GO:0000381</t>
+  </si>
+  <si>
+    <t>GO:0004540</t>
+  </si>
+  <si>
+    <t>GO:0000932</t>
+  </si>
+  <si>
+    <t>GO:0000346</t>
+  </si>
+  <si>
+    <t>action potential</t>
+  </si>
+  <si>
+    <t>G-protein alpha-subunit binding</t>
+  </si>
+  <si>
+    <t>core promoter sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>cytoplasm</t>
+  </si>
+  <si>
+    <t>RNA polymerase II core promoter proximal region sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription factor activity, sequence-specific DNA binding</t>
+  </si>
+  <si>
+    <t>actin binding</t>
+  </si>
+  <si>
+    <t>cellular_component</t>
+  </si>
+  <si>
+    <t>GABA-A receptor activity</t>
+  </si>
+  <si>
+    <t>integrin binding</t>
+  </si>
+  <si>
+    <t>extracellular region</t>
+  </si>
+  <si>
+    <t>acrosomal vesicle</t>
+  </si>
+  <si>
+    <t>molecular_function</t>
+  </si>
+  <si>
+    <t>peroxidase activity</t>
+  </si>
+  <si>
+    <t>nucleotide binding</t>
+  </si>
+  <si>
+    <t>central element</t>
+  </si>
+  <si>
+    <t>in utero embryonic development</t>
+  </si>
+  <si>
+    <t>negative regulation of transcription from RNA polymerase II promoter</t>
+  </si>
+  <si>
+    <t>plasma membrane</t>
+  </si>
+  <si>
+    <t>GTPase activator activity</t>
+  </si>
+  <si>
+    <t>aminopeptidase activity</t>
+  </si>
+  <si>
+    <t>zinc ion transmembrane transporter activity</t>
+  </si>
+  <si>
+    <t>activation of MAPK activity</t>
+  </si>
+  <si>
+    <t>response to hypoxia</t>
+  </si>
+  <si>
+    <t>immune system process</t>
+  </si>
+  <si>
+    <t>protease binding</t>
+  </si>
+  <si>
+    <t>epithelial to mesenchymal transition</t>
+  </si>
+  <si>
+    <t>cartilage condensation</t>
+  </si>
+  <si>
+    <t>mRNA splicing, via spliceosome</t>
+  </si>
+  <si>
+    <t>hematopoietic progenitor cell differentiation</t>
+  </si>
+  <si>
+    <t>RNA binding</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>G-quadruplex RNA binding</t>
+  </si>
+  <si>
+    <t>cysteine-type endopeptidase inhibitor activity</t>
+  </si>
+  <si>
+    <t>protein peptidyl-prolyl isomerization</t>
+  </si>
+  <si>
+    <t>regulation of receptor recycling</t>
+  </si>
+  <si>
+    <t>signal transducer activity</t>
+  </si>
+  <si>
+    <t>phosphorelay sensor kinase activity</t>
+  </si>
+  <si>
+    <t>diacylglycerol kinase activity</t>
+  </si>
+  <si>
+    <t>transcription corepressor activity</t>
+  </si>
+  <si>
+    <t>chromatin</t>
+  </si>
+  <si>
+    <t>nucleic acid binding</t>
+  </si>
+  <si>
+    <t>voltage-gated potassium channel activity</t>
+  </si>
+  <si>
+    <t>DNA binding</t>
+  </si>
+  <si>
+    <t>endosome</t>
+  </si>
+  <si>
+    <t>cell adhesion</t>
+  </si>
+  <si>
+    <t>positive regulation of protein phosphorylation</t>
+  </si>
+  <si>
+    <t>extracellular space</t>
+  </si>
+  <si>
+    <t>transcription factor activity, RNA polymerase II core promoter proximal region sequence-specific binding</t>
+  </si>
+  <si>
+    <t>polysaccharide catabolic process</t>
+  </si>
+  <si>
+    <t>guanylate cyclase activity</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>growth plate cartilage chondrocyte development</t>
+  </si>
+  <si>
+    <t>behavioral fear response</t>
+  </si>
+  <si>
+    <t>calcium ion binding</t>
+  </si>
+  <si>
+    <t>ion channel activity</t>
+  </si>
+  <si>
+    <t>condensed nuclear chromosome</t>
+  </si>
+  <si>
+    <t>oxygen transporter activity</t>
+  </si>
+  <si>
+    <t>photoreceptor outer segment</t>
+  </si>
+  <si>
+    <t>sulfotransferase activity</t>
+  </si>
+  <si>
+    <t>protein binding</t>
+  </si>
+  <si>
+    <t>RNA polymerase II transcription cofactor activity</t>
+  </si>
+  <si>
+    <t>voltage-gated sodium channel complex</t>
+  </si>
+  <si>
+    <t>ribosomal large subunit assembly</t>
+  </si>
+  <si>
+    <t>neuron migration</t>
+  </si>
+  <si>
+    <t>transcription corepressor binding</t>
+  </si>
+  <si>
+    <t>SNARE binding</t>
+  </si>
+  <si>
+    <t>serine-type endopeptidase activity</t>
+  </si>
+  <si>
+    <t>skeletal muscle contraction</t>
+  </si>
+  <si>
+    <t>inorganic anion exchanger activity</t>
+  </si>
+  <si>
+    <t>cell morphogenesis involved in differentiation</t>
+  </si>
+  <si>
+    <t>serine-type endopeptidase inhibitor activity</t>
+  </si>
+  <si>
+    <t>THO complex part of transcription export complex</t>
+  </si>
+  <si>
+    <t>ESCRT I complex</t>
+  </si>
+  <si>
+    <t>regulation of alternative mRNA splicing, via spliceosome</t>
+  </si>
+  <si>
+    <t>ribonuclease activity</t>
+  </si>
+  <si>
+    <t>P-body</t>
+  </si>
+  <si>
+    <t>transcription export complex</t>
   </si>
 </sst>
 </file>
@@ -2290,10 +2761,16 @@
       <c r="G1" t="s">
         <v>17</v>
       </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>-1.5982407711667188</v>
@@ -2305,18 +2782,24 @@
         <v>9.080609926552131E-6</v>
       </c>
       <c r="E2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G2" t="s">
-        <v>552</v>
+        <v>554</v>
+      </c>
+      <c r="H2" t="s">
+        <v>712</v>
+      </c>
+      <c r="I2" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>-1.3947135938979311</v>
@@ -2328,18 +2811,24 @@
         <v>0.003579646644138913</v>
       </c>
       <c r="E3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G3" t="s">
-        <v>553</v>
+        <v>555</v>
+      </c>
+      <c r="H3" t="s">
+        <v>713</v>
+      </c>
+      <c r="I3" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>-1.0889017142590078</v>
@@ -2351,18 +2840,24 @@
         <v>9.420108074473945E-10</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G4" t="s">
-        <v>554</v>
+        <v>556</v>
+      </c>
+      <c r="H4" t="s">
+        <v>714</v>
+      </c>
+      <c r="I4" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>-1.1050157784295311</v>
@@ -2374,18 +2869,24 @@
         <v>0.021005774887340706</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G5" t="s">
-        <v>555</v>
+        <v>557</v>
+      </c>
+      <c r="H5" t="s">
+        <v>715</v>
+      </c>
+      <c r="I5" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>-1.0511585787028916</v>
@@ -2397,18 +2898,24 @@
         <v>8.472235527127342E-9</v>
       </c>
       <c r="E6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F6" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G6" t="s">
-        <v>556</v>
+        <v>558</v>
+      </c>
+      <c r="H6" t="s">
+        <v>716</v>
+      </c>
+      <c r="I6" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="n">
         <v>-1.4257079829605603</v>
@@ -2420,18 +2927,24 @@
         <v>3.0281162316993275E-5</v>
       </c>
       <c r="E7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G7" t="s">
-        <v>557</v>
+        <v>559</v>
+      </c>
+      <c r="H7" t="s">
+        <v>717</v>
+      </c>
+      <c r="I7" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" t="n">
         <v>-1.467657428032044</v>
@@ -2443,18 +2956,24 @@
         <v>0.036295076128260946</v>
       </c>
       <c r="E8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G8" t="s">
-        <v>558</v>
+        <v>560</v>
+      </c>
+      <c r="H8" t="s">
+        <v>718</v>
+      </c>
+      <c r="I8" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="n">
         <v>1.136712287305134</v>
@@ -2466,18 +2985,24 @@
         <v>3.3927645673781404E-5</v>
       </c>
       <c r="E9" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G9" t="s">
-        <v>559</v>
+        <v>561</v>
+      </c>
+      <c r="H9" t="s">
+        <v>719</v>
+      </c>
+      <c r="I9" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" t="n">
         <v>-1.3217260904520278</v>
@@ -2489,18 +3014,24 @@
         <v>2.911889697298588E-4</v>
       </c>
       <c r="E10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G10" t="s">
-        <v>560</v>
+        <v>562</v>
+      </c>
+      <c r="H10" t="s">
+        <v>720</v>
+      </c>
+      <c r="I10" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n">
         <v>-1.0506004539982716</v>
@@ -2512,18 +3043,24 @@
         <v>4.646612691916502E-11</v>
       </c>
       <c r="E11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G11" t="s">
-        <v>561</v>
+        <v>563</v>
+      </c>
+      <c r="H11" t="s">
+        <v>721</v>
+      </c>
+      <c r="I11" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n">
         <v>-1.3529862734504217</v>
@@ -2535,18 +3072,24 @@
         <v>2.3254090681640444E-7</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G12" t="s">
-        <v>562</v>
+        <v>564</v>
+      </c>
+      <c r="H12" t="s">
+        <v>722</v>
+      </c>
+      <c r="I12" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" t="n">
         <v>-1.2643921531494338</v>
@@ -2558,18 +3101,24 @@
         <v>1.9655574556464283E-7</v>
       </c>
       <c r="E13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G13" t="s">
-        <v>563</v>
+        <v>565</v>
+      </c>
+      <c r="H13" t="s">
+        <v>723</v>
+      </c>
+      <c r="I13" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" t="n">
         <v>-1.0917712299670554</v>
@@ -2581,18 +3130,24 @@
         <v>4.1006081441321094E-5</v>
       </c>
       <c r="E14" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G14" t="s">
-        <v>564</v>
+        <v>566</v>
+      </c>
+      <c r="H14" t="s">
+        <v>724</v>
+      </c>
+      <c r="I14" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" t="n">
         <v>1.854832726855012</v>
@@ -2604,18 +3159,24 @@
         <v>2.905515555142827E-11</v>
       </c>
       <c r="E15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F15" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G15" t="s">
-        <v>565</v>
+        <v>567</v>
+      </c>
+      <c r="H15" t="s">
+        <v>724</v>
+      </c>
+      <c r="I15" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" t="n">
         <v>-1.3535538573390067</v>
@@ -2627,18 +3188,24 @@
         <v>1.860879330870691E-15</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F16" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G16" t="s">
-        <v>566</v>
+        <v>568</v>
+      </c>
+      <c r="H16" t="s">
+        <v>725</v>
+      </c>
+      <c r="I16" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" t="n">
         <v>-1.0270389040143109</v>
@@ -2650,18 +3217,24 @@
         <v>0.0015556988069590672</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F17" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G17" t="s">
-        <v>567</v>
+        <v>569</v>
+      </c>
+      <c r="H17" t="s">
+        <v>726</v>
+      </c>
+      <c r="I17" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>-1.4703350521642518</v>
@@ -2673,18 +3246,24 @@
         <v>5.023545327121115E-6</v>
       </c>
       <c r="E18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G18" t="s">
-        <v>568</v>
+        <v>570</v>
+      </c>
+      <c r="H18" t="s">
+        <v>727</v>
+      </c>
+      <c r="I18" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="n">
         <v>-1.2910390608935352</v>
@@ -2696,18 +3275,24 @@
         <v>1.7158878504492592E-7</v>
       </c>
       <c r="E19" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G19" t="s">
-        <v>569</v>
+        <v>571</v>
+      </c>
+      <c r="H19" t="s">
+        <v>728</v>
+      </c>
+      <c r="I19" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="n">
         <v>-1.341897565634852</v>
@@ -2719,18 +3304,24 @@
         <v>5.5638489763585973E-11</v>
       </c>
       <c r="E20" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G20" t="s">
-        <v>570</v>
+        <v>572</v>
+      </c>
+      <c r="H20" t="s">
+        <v>729</v>
+      </c>
+      <c r="I20" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="n">
         <v>-1.2293163145207022</v>
@@ -2742,18 +3333,24 @@
         <v>6.623705528827686E-6</v>
       </c>
       <c r="E21" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G21" t="s">
-        <v>571</v>
+        <v>573</v>
+      </c>
+      <c r="H21" t="s">
+        <v>730</v>
+      </c>
+      <c r="I21" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
         <v>-1.3103259735491763</v>
@@ -2765,18 +3362,24 @@
         <v>9.881334265138604E-5</v>
       </c>
       <c r="E22" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F22" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G22" t="s">
-        <v>572</v>
+        <v>574</v>
+      </c>
+      <c r="H22" t="s">
+        <v>731</v>
+      </c>
+      <c r="I22" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
         <v>-1.1310494699502478</v>
@@ -2788,18 +3391,24 @@
         <v>3.2877044351238944E-9</v>
       </c>
       <c r="E23" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F23" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G23" t="s">
-        <v>573</v>
+        <v>575</v>
+      </c>
+      <c r="H23" t="s">
+        <v>724</v>
+      </c>
+      <c r="I23" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" t="n">
         <v>-1.3710952705866322</v>
@@ -2811,18 +3420,24 @@
         <v>4.2782894533101724E-4</v>
       </c>
       <c r="E24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F24" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G24" t="s">
-        <v>574</v>
+        <v>576</v>
+      </c>
+      <c r="H24" t="s">
+        <v>732</v>
+      </c>
+      <c r="I24" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" t="n">
         <v>-1.1921808971641839</v>
@@ -2834,18 +3449,24 @@
         <v>1.802728283437738E-7</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F25" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G25" t="s">
-        <v>575</v>
+        <v>577</v>
+      </c>
+      <c r="H25" t="s">
+        <v>724</v>
+      </c>
+      <c r="I25" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" t="n">
         <v>-1.669845691841027</v>
@@ -2857,18 +3478,24 @@
         <v>7.036121619195277E-5</v>
       </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F26" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G26" t="s">
-        <v>576</v>
+        <v>578</v>
+      </c>
+      <c r="H26" t="s">
+        <v>724</v>
+      </c>
+      <c r="I26" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" t="n">
         <v>1.0819417039143824</v>
@@ -2880,18 +3507,24 @@
         <v>3.0173951458201104E-11</v>
       </c>
       <c r="E27" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G27" t="s">
-        <v>577</v>
+        <v>579</v>
+      </c>
+      <c r="H27" t="s">
+        <v>733</v>
+      </c>
+      <c r="I27" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
         <v>1.102625931328165</v>
@@ -2903,18 +3536,24 @@
         <v>1.1428249029871738E-5</v>
       </c>
       <c r="E28" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G28" t="s">
-        <v>578</v>
+        <v>580</v>
+      </c>
+      <c r="H28" t="s">
+        <v>734</v>
+      </c>
+      <c r="I28" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" t="n">
         <v>-1.7419381958513285</v>
@@ -2926,18 +3565,24 @@
         <v>7.344718152780779E-6</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F29" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G29" t="s">
-        <v>579</v>
+        <v>581</v>
+      </c>
+      <c r="H29" t="s">
+        <v>729</v>
+      </c>
+      <c r="I29" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" t="n">
         <v>1.1809316790485118</v>
@@ -2949,18 +3594,24 @@
         <v>4.2071760479015075E-6</v>
       </c>
       <c r="E30" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F30" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G30" t="s">
-        <v>580</v>
+        <v>582</v>
+      </c>
+      <c r="H30" t="s">
+        <v>735</v>
+      </c>
+      <c r="I30" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" t="n">
         <v>-4.306852155454072</v>
@@ -2972,18 +3623,24 @@
         <v>3.97772470362052E-8</v>
       </c>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F31" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G31" t="s">
-        <v>581</v>
+        <v>583</v>
+      </c>
+      <c r="H31" t="s">
+        <v>736</v>
+      </c>
+      <c r="I31" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" t="n">
         <v>-1.0239794027106088</v>
@@ -2995,18 +3652,24 @@
         <v>5.69781009302238E-4</v>
       </c>
       <c r="E32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F32" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G32" t="s">
-        <v>582</v>
+        <v>584</v>
+      </c>
+      <c r="H32" t="s">
+        <v>722</v>
+      </c>
+      <c r="I32" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" t="n">
         <v>-1.6576459077352337</v>
@@ -3018,18 +3681,24 @@
         <v>0.02564320480781304</v>
       </c>
       <c r="E33" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F33" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G33" t="s">
-        <v>583</v>
+        <v>585</v>
+      </c>
+      <c r="H33" t="s">
+        <v>737</v>
+      </c>
+      <c r="I33" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" t="n">
         <v>-1.2133682804876422</v>
@@ -3041,18 +3710,24 @@
         <v>1.9720897818592254E-7</v>
       </c>
       <c r="E34" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F34" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G34" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="H34" t="s">
+        <v>724</v>
+      </c>
+      <c r="I34" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
         <v>-1.5097357191766718</v>
@@ -3064,18 +3739,24 @@
         <v>1.2658547715973873E-6</v>
       </c>
       <c r="E35" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F35" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G35" t="s">
-        <v>585</v>
+        <v>587</v>
+      </c>
+      <c r="H35" t="s">
+        <v>738</v>
+      </c>
+      <c r="I35" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" t="n">
         <v>-1.3630334560288495</v>
@@ -3087,18 +3768,24 @@
         <v>3.013797079754692E-13</v>
       </c>
       <c r="E36" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F36" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G36" t="s">
-        <v>586</v>
+        <v>588</v>
+      </c>
+      <c r="H36" t="s">
+        <v>739</v>
+      </c>
+      <c r="I36" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" t="n">
         <v>-1.121551402551372</v>
@@ -3110,18 +3797,24 @@
         <v>4.858435461960311E-7</v>
       </c>
       <c r="E37" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F37" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G37" t="s">
-        <v>587</v>
+        <v>589</v>
+      </c>
+      <c r="H37" t="s">
+        <v>740</v>
+      </c>
+      <c r="I37" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" t="n">
         <v>-1.1702739980215824</v>
@@ -3133,18 +3826,24 @@
         <v>4.245079593764551E-10</v>
       </c>
       <c r="E38" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F38" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G38" t="s">
-        <v>588</v>
+        <v>590</v>
+      </c>
+      <c r="H38" t="s">
+        <v>715</v>
+      </c>
+      <c r="I38" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
         <v>-1.2351141202973817</v>
@@ -3156,18 +3855,24 @@
         <v>2.9599955094889156E-6</v>
       </c>
       <c r="E39" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F39" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G39" t="s">
-        <v>589</v>
+        <v>591</v>
+      </c>
+      <c r="H39" t="s">
+        <v>724</v>
+      </c>
+      <c r="I39" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
         <v>-1.4632702136571774</v>
@@ -3179,18 +3884,24 @@
         <v>6.309261049778601E-10</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F40" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G40" t="s">
-        <v>590</v>
+        <v>592</v>
+      </c>
+      <c r="H40" t="s">
+        <v>741</v>
+      </c>
+      <c r="I40" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
         <v>-1.0815775317256942</v>
@@ -3202,18 +3913,24 @@
         <v>1.2680003194685496E-6</v>
       </c>
       <c r="E41" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F41" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G41" t="s">
-        <v>591</v>
+        <v>593</v>
+      </c>
+      <c r="H41" t="s">
+        <v>742</v>
+      </c>
+      <c r="I41" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" t="n">
         <v>-1.0875637108955327</v>
@@ -3225,18 +3942,24 @@
         <v>2.457436985645713E-5</v>
       </c>
       <c r="E42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F42" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G42" t="s">
-        <v>592</v>
+        <v>594</v>
+      </c>
+      <c r="H42" t="s">
+        <v>726</v>
+      </c>
+      <c r="I42" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" t="n">
         <v>1.1274113213861634</v>
@@ -3248,18 +3971,24 @@
         <v>0.04213015630227117</v>
       </c>
       <c r="E43" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F43" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G43" t="s">
-        <v>593</v>
+        <v>595</v>
+      </c>
+      <c r="H43" t="s">
+        <v>743</v>
+      </c>
+      <c r="I43" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" t="n">
         <v>-1.205032120226965</v>
@@ -3271,18 +4000,24 @@
         <v>1.1598204303142776E-8</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F44" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G44" t="s">
-        <v>594</v>
+        <v>596</v>
+      </c>
+      <c r="H44" t="s">
+        <v>726</v>
+      </c>
+      <c r="I44" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" t="n">
         <v>-1.48260448539555</v>
@@ -3294,18 +4029,24 @@
         <v>5.047291642742953E-4</v>
       </c>
       <c r="E45" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F45" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G45" t="s">
-        <v>595</v>
+        <v>597</v>
+      </c>
+      <c r="H45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I45" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" t="n">
         <v>-1.1540370954920633</v>
@@ -3317,18 +4058,24 @@
         <v>1.0900172849605308E-4</v>
       </c>
       <c r="E46" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F46" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G46" t="s">
-        <v>596</v>
+        <v>598</v>
+      </c>
+      <c r="H46" t="s">
+        <v>744</v>
+      </c>
+      <c r="I46" t="s">
+        <v>821</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="n">
         <v>-1.122819164814504</v>
@@ -3340,18 +4087,24 @@
         <v>7.65989447531257E-6</v>
       </c>
       <c r="E47" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F47" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G47" t="s">
-        <v>597</v>
+        <v>599</v>
+      </c>
+      <c r="H47" t="s">
+        <v>726</v>
+      </c>
+      <c r="I47" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="n">
         <v>-1.0102551766965546</v>
@@ -3363,18 +4116,24 @@
         <v>4.7095812647848453E-4</v>
       </c>
       <c r="E48" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F48" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G48" t="s">
-        <v>598</v>
+        <v>600</v>
+      </c>
+      <c r="H48" t="s">
+        <v>740</v>
+      </c>
+      <c r="I48" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="n">
         <v>-1.8236652899080703</v>
@@ -3386,18 +4145,24 @@
         <v>0.03573137234963659</v>
       </c>
       <c r="E49" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F49" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G49" t="s">
-        <v>599</v>
+        <v>601</v>
+      </c>
+      <c r="H49" t="s">
+        <v>745</v>
+      </c>
+      <c r="I49" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" t="n">
         <v>-1.2149327236107823</v>
@@ -3409,18 +4174,24 @@
         <v>8.620207023734493E-7</v>
       </c>
       <c r="E50" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F50" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G50" t="s">
-        <v>600</v>
+        <v>602</v>
+      </c>
+      <c r="H50" t="s">
+        <v>746</v>
+      </c>
+      <c r="I50" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" t="n">
         <v>1.6080436907480504</v>
@@ -3432,18 +4203,24 @@
         <v>7.082891763927284E-7</v>
       </c>
       <c r="E51" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F51" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G51" t="s">
-        <v>601</v>
+        <v>603</v>
+      </c>
+      <c r="H51" t="s">
+        <v>724</v>
+      </c>
+      <c r="I51" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" t="n">
         <v>-1.1575164833236322</v>
@@ -3455,18 +4232,24 @@
         <v>0.002146575684301499</v>
       </c>
       <c r="E52" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F52" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G52" t="s">
-        <v>602</v>
+        <v>604</v>
+      </c>
+      <c r="H52" t="s">
+        <v>726</v>
+      </c>
+      <c r="I52" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B53" t="n">
         <v>-1.0208258202615097</v>
@@ -3478,18 +4261,24 @@
         <v>5.750804086798814E-6</v>
       </c>
       <c r="E53" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F53" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G53" t="s">
-        <v>603</v>
+        <v>605</v>
+      </c>
+      <c r="H53" t="s">
+        <v>724</v>
+      </c>
+      <c r="I53" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B54" t="n">
         <v>-1.0433841136899056</v>
@@ -3501,18 +4290,24 @@
         <v>1.181791679692131E-7</v>
       </c>
       <c r="E54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F54" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G54" t="s">
-        <v>604</v>
+        <v>606</v>
+      </c>
+      <c r="H54" t="s">
+        <v>747</v>
+      </c>
+      <c r="I54" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B55" t="n">
         <v>-1.1653232265473614</v>
@@ -3524,18 +4319,24 @@
         <v>8.637157532062597E-8</v>
       </c>
       <c r="E55" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G55" t="s">
-        <v>605</v>
+        <v>607</v>
+      </c>
+      <c r="H55" t="s">
+        <v>748</v>
+      </c>
+      <c r="I55" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B56" t="n">
         <v>-1.1039508857434348</v>
@@ -3547,18 +4348,24 @@
         <v>1.8609699061235955E-9</v>
       </c>
       <c r="E56" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F56" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G56" t="s">
-        <v>606</v>
+        <v>608</v>
+      </c>
+      <c r="H56" t="s">
+        <v>742</v>
+      </c>
+      <c r="I56" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B57" t="n">
         <v>-1.2230519234896198</v>
@@ -3570,18 +4377,24 @@
         <v>8.104868694647862E-10</v>
       </c>
       <c r="E57" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G57" t="s">
-        <v>607</v>
+        <v>609</v>
+      </c>
+      <c r="H57" t="s">
+        <v>749</v>
+      </c>
+      <c r="I57" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B58" t="n">
         <v>-1.5365114583812693</v>
@@ -3593,18 +4406,24 @@
         <v>6.411202389803887E-9</v>
       </c>
       <c r="E58" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G58" t="s">
-        <v>608</v>
+        <v>610</v>
+      </c>
+      <c r="H58" t="s">
+        <v>750</v>
+      </c>
+      <c r="I58" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B59" t="n">
         <v>-1.0888639169085563</v>
@@ -3616,18 +4435,24 @@
         <v>3.40440523936651E-5</v>
       </c>
       <c r="E59" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F59" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G59" t="s">
-        <v>609</v>
+        <v>611</v>
+      </c>
+      <c r="H59" t="s">
+        <v>751</v>
+      </c>
+      <c r="I59" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B60" t="n">
         <v>-1.124607432708543</v>
@@ -3639,18 +4464,24 @@
         <v>5.80721013189937E-9</v>
       </c>
       <c r="E60" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F60" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G60" t="s">
-        <v>610</v>
+        <v>612</v>
+      </c>
+      <c r="H60" t="s">
+        <v>719</v>
+      </c>
+      <c r="I60" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B61" t="n">
         <v>-1.2731344796066222</v>
@@ -3662,18 +4493,24 @@
         <v>1.9958426812224326E-8</v>
       </c>
       <c r="E61" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F61" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G61" t="s">
-        <v>611</v>
+        <v>613</v>
+      </c>
+      <c r="H61" t="s">
+        <v>752</v>
+      </c>
+      <c r="I61" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B62" t="n">
         <v>1.294374646498253</v>
@@ -3685,18 +4522,24 @@
         <v>3.632724964339825E-5</v>
       </c>
       <c r="E62" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F62" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="G62" t="s">
-        <v>612</v>
+        <v>614</v>
+      </c>
+      <c r="H62" t="s">
+        <v>753</v>
+      </c>
+      <c r="I62" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B63" t="n">
         <v>-1.0246355893346417</v>
@@ -3708,18 +4551,24 @@
         <v>2.6500147957755152E-5</v>
       </c>
       <c r="E63" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F63" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G63" t="s">
-        <v>613</v>
+        <v>615</v>
+      </c>
+      <c r="H63" t="s">
+        <v>754</v>
+      </c>
+      <c r="I63" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B64" t="n">
         <v>-1.5494425543077128</v>
@@ -3731,18 +4580,24 @@
         <v>1.3789184955128723E-5</v>
       </c>
       <c r="E64" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F64" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G64" t="s">
-        <v>614</v>
+        <v>616</v>
+      </c>
+      <c r="H64" t="s">
+        <v>719</v>
+      </c>
+      <c r="I64" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B65" t="n">
         <v>-1.1665393492242617</v>
@@ -3754,18 +4609,24 @@
         <v>4.5793136586603317E-7</v>
       </c>
       <c r="E65" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F65" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G65" t="s">
-        <v>615</v>
+        <v>617</v>
+      </c>
+      <c r="H65" t="s">
+        <v>755</v>
+      </c>
+      <c r="I65" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B66" t="n">
         <v>-1.1231835672929518</v>
@@ -3777,18 +4638,24 @@
         <v>1.8876784698794804E-4</v>
       </c>
       <c r="E66" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F66" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G66" t="s">
-        <v>616</v>
+        <v>618</v>
+      </c>
+      <c r="H66" t="s">
+        <v>756</v>
+      </c>
+      <c r="I66" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B67" t="n">
         <v>-1.0430098825011798</v>
@@ -3800,18 +4667,24 @@
         <v>1.3106084899198738E-5</v>
       </c>
       <c r="E67" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F67" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G67" t="s">
-        <v>617</v>
+        <v>619</v>
+      </c>
+      <c r="H67" t="s">
+        <v>724</v>
+      </c>
+      <c r="I67" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B68" t="n">
         <v>-1.260706678391193</v>
@@ -3823,18 +4696,24 @@
         <v>8.360694017834136E-7</v>
       </c>
       <c r="E68" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F68" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G68" t="s">
-        <v>618</v>
+        <v>620</v>
+      </c>
+      <c r="H68" t="s">
+        <v>757</v>
+      </c>
+      <c r="I68" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B69" t="n">
         <v>-1.0514569193616086</v>
@@ -3846,18 +4725,24 @@
         <v>9.851259810534832E-8</v>
       </c>
       <c r="E69" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F69" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G69" t="s">
-        <v>619</v>
+        <v>621</v>
+      </c>
+      <c r="H69" t="s">
+        <v>755</v>
+      </c>
+      <c r="I69" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B70" t="n">
         <v>-1.7230124502376019</v>
@@ -3869,18 +4754,24 @@
         <v>0.04379394651520948</v>
       </c>
       <c r="E70" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F70" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G70" t="s">
-        <v>620</v>
+        <v>622</v>
+      </c>
+      <c r="H70" t="s">
+        <v>758</v>
+      </c>
+      <c r="I70" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B71" t="n">
         <v>-1.0700882813954644</v>
@@ -3892,18 +4783,24 @@
         <v>2.4271450806637715E-8</v>
       </c>
       <c r="E71" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F71" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G71" t="s">
-        <v>621</v>
+        <v>623</v>
+      </c>
+      <c r="H71" t="s">
+        <v>759</v>
+      </c>
+      <c r="I71" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B72" t="n">
         <v>-1.0829917470462398</v>
@@ -3915,18 +4812,24 @@
         <v>2.0866806378136513E-8</v>
       </c>
       <c r="E72" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F72" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G72" t="s">
-        <v>622</v>
+        <v>624</v>
+      </c>
+      <c r="H72" t="s">
+        <v>729</v>
+      </c>
+      <c r="I72" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B73" t="n">
         <v>-1.1964077313907764</v>
@@ -3938,18 +4841,24 @@
         <v>0.002673576500774693</v>
       </c>
       <c r="E73" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F73" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G73" t="s">
-        <v>623</v>
+        <v>625</v>
+      </c>
+      <c r="H73" t="s">
+        <v>724</v>
+      </c>
+      <c r="I73" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" t="n">
         <v>-1.4829356554909998</v>
@@ -3961,18 +4870,24 @@
         <v>6.691469363779422E-7</v>
       </c>
       <c r="E74" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F74" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G74" t="s">
-        <v>624</v>
+        <v>626</v>
+      </c>
+      <c r="H74" t="s">
+        <v>760</v>
+      </c>
+      <c r="I74" t="s">
+        <v>837</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B75" t="n">
         <v>-1.0950885263560426</v>
@@ -3984,18 +4899,24 @@
         <v>8.731557918094106E-10</v>
       </c>
       <c r="E75" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F75" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G75" t="s">
-        <v>625</v>
+        <v>627</v>
+      </c>
+      <c r="H75" t="s">
+        <v>741</v>
+      </c>
+      <c r="I75" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B76" t="n">
         <v>-2.1225785927284844</v>
@@ -4007,18 +4928,24 @@
         <v>0.017363068861292776</v>
       </c>
       <c r="E76" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F76" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G76" t="s">
-        <v>626</v>
+        <v>628</v>
+      </c>
+      <c r="H76" t="s">
+        <v>761</v>
+      </c>
+      <c r="I76" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B77" t="n">
         <v>-1.5480820920783602</v>
@@ -4030,18 +4957,24 @@
         <v>1.080515351806898E-9</v>
       </c>
       <c r="E77" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F77" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G77" t="s">
-        <v>627</v>
+        <v>629</v>
+      </c>
+      <c r="H77" t="s">
+        <v>762</v>
+      </c>
+      <c r="I77" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B78" t="n">
         <v>-1.4790239400841572</v>
@@ -4053,18 +4986,24 @@
         <v>3.1042061208480414E-6</v>
       </c>
       <c r="E78" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F78" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G78" t="s">
-        <v>628</v>
+        <v>630</v>
+      </c>
+      <c r="H78" t="s">
+        <v>718</v>
+      </c>
+      <c r="I78" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B79" t="n">
         <v>-1.1935327502478021</v>
@@ -4076,18 +5015,24 @@
         <v>3.2160777783148975E-7</v>
       </c>
       <c r="E79" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F79" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G79" t="s">
-        <v>629</v>
+        <v>631</v>
+      </c>
+      <c r="H79" t="s">
+        <v>713</v>
+      </c>
+      <c r="I79" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B80" t="n">
         <v>-1.1958017103849459</v>
@@ -4099,18 +5044,24 @@
         <v>7.723811668103037E-6</v>
       </c>
       <c r="E80" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F80" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G80" t="s">
-        <v>630</v>
+        <v>632</v>
+      </c>
+      <c r="H80" t="s">
+        <v>724</v>
+      </c>
+      <c r="I80" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" t="n">
         <v>-1.1186279854166599</v>
@@ -4130,10 +5081,16 @@
       <c r="G81" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H81" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I81" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B82" t="n">
         <v>-1.0014454483719553</v>
@@ -4145,18 +5102,24 @@
         <v>0.0028333303452245545</v>
       </c>
       <c r="E82" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F82" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G82" t="s">
-        <v>631</v>
+        <v>633</v>
+      </c>
+      <c r="H82" t="s">
+        <v>723</v>
+      </c>
+      <c r="I82" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B83" t="n">
         <v>-3.659562534315218</v>
@@ -4176,10 +5139,16 @@
       <c r="G83" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H83" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I83" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B84" t="n">
         <v>-1.2362628029918783</v>
@@ -4191,18 +5160,24 @@
         <v>1.129510747057906E-6</v>
       </c>
       <c r="E84" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F84" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G84" t="s">
-        <v>632</v>
+        <v>634</v>
+      </c>
+      <c r="H84" t="s">
+        <v>724</v>
+      </c>
+      <c r="I84" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B85" t="n">
         <v>-1.5722935296152216</v>
@@ -4214,18 +5189,24 @@
         <v>2.044575977025016E-8</v>
       </c>
       <c r="E85" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F85" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G85" t="s">
-        <v>633</v>
+        <v>635</v>
+      </c>
+      <c r="H85" t="s">
+        <v>724</v>
+      </c>
+      <c r="I85" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B86" t="n">
         <v>-1.5902002121494097</v>
@@ -4245,10 +5226,16 @@
       <c r="G86" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H86" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I86" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B87" t="n">
         <v>-1.0753887109939697</v>
@@ -4260,18 +5247,24 @@
         <v>7.266763024932652E-5</v>
       </c>
       <c r="E87" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F87" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G87" t="s">
-        <v>634</v>
+        <v>636</v>
+      </c>
+      <c r="H87" t="s">
+        <v>763</v>
+      </c>
+      <c r="I87" t="s">
+        <v>841</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88" t="n">
         <v>-1.0203055767997073</v>
@@ -4283,18 +5276,24 @@
         <v>5.863332348828837E-7</v>
       </c>
       <c r="E88" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F88" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G88" t="s">
-        <v>635</v>
+        <v>637</v>
+      </c>
+      <c r="H88" t="s">
+        <v>716</v>
+      </c>
+      <c r="I88" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" t="n">
         <v>1.1374560340856996</v>
@@ -4306,18 +5305,24 @@
         <v>4.2275960006433235E-4</v>
       </c>
       <c r="E89" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F89" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G89" t="s">
-        <v>636</v>
+        <v>638</v>
+      </c>
+      <c r="H89" t="s">
+        <v>734</v>
+      </c>
+      <c r="I89" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B90" t="n">
         <v>-1.0447311282321168</v>
@@ -4329,18 +5334,24 @@
         <v>4.17233369071534E-5</v>
       </c>
       <c r="E90" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F90" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G90" t="s">
-        <v>637</v>
+        <v>639</v>
+      </c>
+      <c r="H90" t="s">
+        <v>724</v>
+      </c>
+      <c r="I90" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B91" t="n">
         <v>5.800175736991571</v>
@@ -4360,10 +5371,16 @@
       <c r="G91" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H91" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I91" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B92" t="n">
         <v>-1.463490960233168</v>
@@ -4375,18 +5392,24 @@
         <v>5.83887931792441E-7</v>
       </c>
       <c r="E92" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F92" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="G92" t="s">
-        <v>638</v>
+        <v>640</v>
+      </c>
+      <c r="H92" t="s">
+        <v>764</v>
+      </c>
+      <c r="I92" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" t="n">
         <v>-1.1136510862155895</v>
@@ -4398,18 +5421,24 @@
         <v>8.709983947940726E-6</v>
       </c>
       <c r="E93" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F93" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G93" t="s">
-        <v>639</v>
+        <v>641</v>
+      </c>
+      <c r="H93" t="s">
+        <v>765</v>
+      </c>
+      <c r="I93" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B94" t="n">
         <v>-1.6885913974160043</v>
@@ -4421,18 +5450,24 @@
         <v>1.1474918548001472E-5</v>
       </c>
       <c r="E94" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F94" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G94" t="s">
-        <v>640</v>
+        <v>642</v>
+      </c>
+      <c r="H94" t="s">
+        <v>766</v>
+      </c>
+      <c r="I94" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" t="n">
         <v>1.555456105438204</v>
@@ -4444,18 +5479,24 @@
         <v>0.017110156654379323</v>
       </c>
       <c r="E95" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F95" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G95" t="s">
-        <v>641</v>
+        <v>643</v>
+      </c>
+      <c r="H95" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I95" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B96" t="n">
         <v>-1.1310536200617938</v>
@@ -4467,18 +5508,24 @@
         <v>0.01046386202210921</v>
       </c>
       <c r="E96" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F96" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G96" t="s">
-        <v>642</v>
+        <v>644</v>
+      </c>
+      <c r="H96" t="s">
+        <v>724</v>
+      </c>
+      <c r="I96" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" t="n">
         <v>-1.0033771514354892</v>
@@ -4490,18 +5537,24 @@
         <v>2.0042345178751375E-6</v>
       </c>
       <c r="E97" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F97" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G97" t="s">
-        <v>643</v>
+        <v>645</v>
+      </c>
+      <c r="H97" t="s">
+        <v>728</v>
+      </c>
+      <c r="I97" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" t="n">
         <v>-1.034593718003417</v>
@@ -4513,18 +5566,24 @@
         <v>2.3658818484534765E-7</v>
       </c>
       <c r="E98" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F98" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G98" t="s">
-        <v>644</v>
+        <v>646</v>
+      </c>
+      <c r="H98" t="s">
+        <v>726</v>
+      </c>
+      <c r="I98" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B99" t="n">
         <v>-1.0299751141852773</v>
@@ -4536,18 +5595,24 @@
         <v>4.129008998682756E-7</v>
       </c>
       <c r="E99" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F99" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G99" t="s">
-        <v>645</v>
+        <v>647</v>
+      </c>
+      <c r="H99" t="s">
+        <v>724</v>
+      </c>
+      <c r="I99" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B100" t="n">
         <v>-1.0857074303263416</v>
@@ -4559,18 +5624,24 @@
         <v>1.1052097262430095E-7</v>
       </c>
       <c r="E100" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="F100" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G100" t="s">
-        <v>646</v>
+        <v>648</v>
+      </c>
+      <c r="H100" t="s">
+        <v>715</v>
+      </c>
+      <c r="I100" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B101" t="n">
         <v>-1.0596737355170873</v>
@@ -4582,18 +5653,24 @@
         <v>6.570677799038607E-4</v>
       </c>
       <c r="E101" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F101" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G101" t="s">
-        <v>647</v>
+        <v>649</v>
+      </c>
+      <c r="H101" t="s">
+        <v>767</v>
+      </c>
+      <c r="I101" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B102" t="n">
         <v>-1.4145392672885226</v>
@@ -4605,18 +5682,24 @@
         <v>3.5705323962475546E-8</v>
       </c>
       <c r="E102" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F102" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G102" t="s">
-        <v>648</v>
+        <v>650</v>
+      </c>
+      <c r="H102" t="s">
+        <v>724</v>
+      </c>
+      <c r="I102" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B103" t="n">
         <v>1.046526328849965</v>
@@ -4628,18 +5711,24 @@
         <v>2.1402620114529594E-6</v>
       </c>
       <c r="E103" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F103" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G103" t="s">
-        <v>649</v>
+        <v>651</v>
+      </c>
+      <c r="H103" t="s">
+        <v>768</v>
+      </c>
+      <c r="I103" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B104" t="n">
         <v>-1.1059639382250692</v>
@@ -4651,18 +5740,24 @@
         <v>0.009386919017519866</v>
       </c>
       <c r="E104" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F104" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G104" t="s">
-        <v>650</v>
+        <v>652</v>
+      </c>
+      <c r="H104" t="s">
+        <v>724</v>
+      </c>
+      <c r="I104" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B105" t="n">
         <v>-1.1152245075475054</v>
@@ -4674,18 +5769,24 @@
         <v>8.893334390828404E-8</v>
       </c>
       <c r="E105" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F105" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G105" t="s">
-        <v>651</v>
+        <v>653</v>
+      </c>
+      <c r="H105" t="s">
+        <v>769</v>
+      </c>
+      <c r="I105" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B106" t="n">
         <v>-1.0426431824430131</v>
@@ -4697,18 +5798,24 @@
         <v>5.673906860522851E-6</v>
       </c>
       <c r="E106" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F106" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G106" t="s">
-        <v>652</v>
+        <v>654</v>
+      </c>
+      <c r="H106" t="s">
+        <v>754</v>
+      </c>
+      <c r="I106" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B107" t="n">
         <v>-1.2898806341559235</v>
@@ -4728,10 +5835,16 @@
       <c r="G107" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H107" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I107" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" t="n">
         <v>-1.039052727914216</v>
@@ -4743,18 +5856,24 @@
         <v>6.368906035592804E-4</v>
       </c>
       <c r="E108" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F108" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G108" t="s">
-        <v>653</v>
+        <v>655</v>
+      </c>
+      <c r="H108" t="s">
+        <v>770</v>
+      </c>
+      <c r="I108" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B109" t="n">
         <v>-1.175549726175069</v>
@@ -4766,18 +5885,24 @@
         <v>6.911094876685538E-6</v>
       </c>
       <c r="E109" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F109" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G109" t="s">
-        <v>654</v>
+        <v>656</v>
+      </c>
+      <c r="H109" t="s">
+        <v>724</v>
+      </c>
+      <c r="I109" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B110" t="n">
         <v>-1.052965898381024</v>
@@ -4797,10 +5922,16 @@
       <c r="G110" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H110" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I110" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B111" t="n">
         <v>-1.7676487473169964</v>
@@ -4812,18 +5943,24 @@
         <v>2.95926245297288E-7</v>
       </c>
       <c r="E111" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F111" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G111" t="s">
-        <v>655</v>
+        <v>657</v>
+      </c>
+      <c r="H111" t="s">
+        <v>765</v>
+      </c>
+      <c r="I111" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B112" t="n">
         <v>-1.1355281345408952</v>
@@ -4835,18 +5972,24 @@
         <v>1.335995486540883E-8</v>
       </c>
       <c r="E112" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F112" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G112" t="s">
-        <v>656</v>
+        <v>658</v>
+      </c>
+      <c r="H112" t="s">
+        <v>726</v>
+      </c>
+      <c r="I112" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B113" t="n">
         <v>-1.1630180365269278</v>
@@ -4858,18 +6001,24 @@
         <v>8.753296875052459E-9</v>
       </c>
       <c r="E113" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F113" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G113" t="s">
-        <v>657</v>
+        <v>659</v>
+      </c>
+      <c r="H113" t="s">
+        <v>771</v>
+      </c>
+      <c r="I113" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B114" t="n">
         <v>-1.7546858355383628</v>
@@ -4881,18 +6030,24 @@
         <v>0.027577016207161315</v>
       </c>
       <c r="E114" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F114" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G114" t="s">
-        <v>658</v>
+        <v>660</v>
+      </c>
+      <c r="H114" t="s">
+        <v>736</v>
+      </c>
+      <c r="I114" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B115" t="n">
         <v>-1.504704888349546</v>
@@ -4904,18 +6059,24 @@
         <v>0.049684678956602474</v>
       </c>
       <c r="E115" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F115" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G115" t="s">
-        <v>659</v>
+        <v>661</v>
+      </c>
+      <c r="H115" t="s">
+        <v>736</v>
+      </c>
+      <c r="I115" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B116" t="n">
         <v>-1.0304055848063813</v>
@@ -4927,18 +6088,24 @@
         <v>3.3933340084462956E-6</v>
       </c>
       <c r="E116" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F116" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G116" t="s">
-        <v>660</v>
+        <v>662</v>
+      </c>
+      <c r="H116" t="s">
+        <v>772</v>
+      </c>
+      <c r="I116" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B117" t="n">
         <v>-1.152302492206585</v>
@@ -4958,10 +6125,16 @@
       <c r="G117" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H117" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I117" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B118" t="n">
         <v>-1.0391750068401284</v>
@@ -4973,18 +6146,24 @@
         <v>2.096548946233426E-6</v>
       </c>
       <c r="E118" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F118" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G118" t="s">
-        <v>661</v>
+        <v>663</v>
+      </c>
+      <c r="H118" t="s">
+        <v>773</v>
+      </c>
+      <c r="I118" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B119" t="n">
         <v>-1.1037226939889084</v>
@@ -4996,18 +6175,24 @@
         <v>6.154040678927896E-7</v>
       </c>
       <c r="E119" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F119" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G119" t="s">
-        <v>662</v>
+        <v>664</v>
+      </c>
+      <c r="H119" t="s">
+        <v>766</v>
+      </c>
+      <c r="I119" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B120" t="n">
         <v>-1.023670067800359</v>
@@ -5019,18 +6204,24 @@
         <v>1.8018100343107066E-10</v>
       </c>
       <c r="E120" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F120" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G120" t="s">
-        <v>663</v>
+        <v>665</v>
+      </c>
+      <c r="H120" t="s">
+        <v>774</v>
+      </c>
+      <c r="I120" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B121" t="n">
         <v>-4.38030361652915</v>
@@ -5050,10 +6241,16 @@
       <c r="G121" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H121" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I121" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B122" t="n">
         <v>-1.0393150931571336</v>
@@ -5065,18 +6262,24 @@
         <v>2.370358591389891E-7</v>
       </c>
       <c r="E122" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F122" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G122" t="s">
-        <v>664</v>
+        <v>666</v>
+      </c>
+      <c r="H122" t="s">
+        <v>726</v>
+      </c>
+      <c r="I122" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B123" t="n">
         <v>-6.037623511349356</v>
@@ -5096,10 +6299,16 @@
       <c r="G123" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H123" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I123" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B124" t="n">
         <v>-1.4648211223840013</v>
@@ -5111,18 +6320,24 @@
         <v>1.0743164013113043E-4</v>
       </c>
       <c r="E124" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F124" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G124" t="s">
-        <v>665</v>
+        <v>667</v>
+      </c>
+      <c r="H124" t="s">
+        <v>775</v>
+      </c>
+      <c r="I124" t="s">
+        <v>853</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B125" t="n">
         <v>-1.0652006072222953</v>
@@ -5134,18 +6349,24 @@
         <v>1.6460625130864083E-7</v>
       </c>
       <c r="E125" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F125" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G125" t="s">
-        <v>666</v>
+        <v>668</v>
+      </c>
+      <c r="H125" t="s">
+        <v>729</v>
+      </c>
+      <c r="I125" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B126" t="n">
         <v>-1.4591981360395117</v>
@@ -5157,18 +6378,24 @@
         <v>1.3785970464210035E-5</v>
       </c>
       <c r="E126" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F126" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G126" t="s">
-        <v>667</v>
+        <v>669</v>
+      </c>
+      <c r="H126" t="s">
+        <v>729</v>
+      </c>
+      <c r="I126" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B127" t="n">
         <v>-1.3444561145988445</v>
@@ -5180,18 +6407,24 @@
         <v>4.069594771417208E-11</v>
       </c>
       <c r="E127" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F127" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G127" t="s">
-        <v>668</v>
+        <v>670</v>
+      </c>
+      <c r="H127" t="s">
+        <v>776</v>
+      </c>
+      <c r="I127" t="s">
+        <v>854</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B128" t="n">
         <v>-1.0178034785288534</v>
@@ -5203,18 +6436,24 @@
         <v>0.0012900229917235677</v>
       </c>
       <c r="E128" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F128" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G128" t="s">
-        <v>669</v>
+        <v>671</v>
+      </c>
+      <c r="H128" t="s">
+        <v>777</v>
+      </c>
+      <c r="I128" t="s">
+        <v>855</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B129" t="n">
         <v>-1.1862707955259473</v>
@@ -5226,18 +6465,24 @@
         <v>1.6989059805931105E-5</v>
       </c>
       <c r="E129" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F129" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G129" t="s">
-        <v>670</v>
+        <v>672</v>
+      </c>
+      <c r="H129" t="s">
+        <v>724</v>
+      </c>
+      <c r="I129" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B130" t="n">
         <v>-1.0915070111640242</v>
@@ -5257,10 +6502,16 @@
       <c r="G130" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H130" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I130" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B131" t="n">
         <v>1.0462062487352315</v>
@@ -5272,18 +6523,24 @@
         <v>2.3843572478330879E-4</v>
       </c>
       <c r="E131" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F131" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G131" t="s">
-        <v>671</v>
+        <v>673</v>
+      </c>
+      <c r="H131" t="s">
+        <v>778</v>
+      </c>
+      <c r="I131" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B132" t="n">
         <v>2.2991013189213745</v>
@@ -5295,18 +6552,24 @@
         <v>1.0567511677495199E-7</v>
       </c>
       <c r="E132" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F132" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G132" t="s">
-        <v>672</v>
+        <v>674</v>
+      </c>
+      <c r="H132" t="s">
+        <v>779</v>
+      </c>
+      <c r="I132" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B133" t="n">
         <v>-1.7106442494560155</v>
@@ -5318,18 +6581,24 @@
         <v>1.2540087263966371E-5</v>
       </c>
       <c r="E133" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F133" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G133" t="s">
-        <v>673</v>
+        <v>675</v>
+      </c>
+      <c r="H133" t="s">
+        <v>729</v>
+      </c>
+      <c r="I133" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B134" t="n">
         <v>-5.50947689365347</v>
@@ -5349,10 +6618,16 @@
       <c r="G134" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H134" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I134" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B135" t="n">
         <v>-1.627271121864639</v>
@@ -5364,18 +6639,24 @@
         <v>2.6104424905976383E-6</v>
       </c>
       <c r="E135" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F135" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G135" t="s">
-        <v>674</v>
+        <v>676</v>
+      </c>
+      <c r="H135" t="s">
+        <v>757</v>
+      </c>
+      <c r="I135" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B136" t="n">
         <v>1.0459857715446783</v>
@@ -5387,18 +6668,24 @@
         <v>2.2003941927247303E-5</v>
       </c>
       <c r="E136" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F136" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G136" t="s">
-        <v>675</v>
+        <v>677</v>
+      </c>
+      <c r="H136" t="s">
+        <v>780</v>
+      </c>
+      <c r="I136" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B137" t="n">
         <v>-1.0260524497471957</v>
@@ -5410,18 +6697,24 @@
         <v>9.04443533651225E-6</v>
       </c>
       <c r="E137" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F137" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G137" t="s">
-        <v>676</v>
+        <v>678</v>
+      </c>
+      <c r="H137" t="s">
+        <v>716</v>
+      </c>
+      <c r="I137" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B138" t="n">
         <v>-1.430461728070002</v>
@@ -5441,10 +6734,16 @@
       <c r="G138" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I138" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B139" t="n">
         <v>1.053977143351553</v>
@@ -5456,18 +6755,24 @@
         <v>6.019378137975706E-6</v>
       </c>
       <c r="E139" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F139" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G139" t="s">
-        <v>677</v>
+        <v>679</v>
+      </c>
+      <c r="H139" t="s">
+        <v>728</v>
+      </c>
+      <c r="I139" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B140" t="n">
         <v>-1.659754910384455</v>
@@ -5479,18 +6784,24 @@
         <v>1.2621017448931196E-12</v>
       </c>
       <c r="E140" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F140" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G140" t="s">
-        <v>678</v>
+        <v>680</v>
+      </c>
+      <c r="H140" t="s">
+        <v>724</v>
+      </c>
+      <c r="I140" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B141" t="n">
         <v>1.1788429793049133</v>
@@ -5502,18 +6813,24 @@
         <v>0.013673196276805664</v>
       </c>
       <c r="E141" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F141" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G141" t="s">
-        <v>679</v>
+        <v>681</v>
+      </c>
+      <c r="H141" t="s">
+        <v>728</v>
+      </c>
+      <c r="I141" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B142" t="n">
         <v>-1.008078212685697</v>
@@ -5525,18 +6842,24 @@
         <v>2.831477938871576E-5</v>
       </c>
       <c r="E142" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F142" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G142" t="s">
-        <v>680</v>
+        <v>682</v>
+      </c>
+      <c r="H142" t="s">
+        <v>719</v>
+      </c>
+      <c r="I142" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B143" t="n">
         <v>-1.1420670277268885</v>
@@ -5548,18 +6871,24 @@
         <v>2.341468197532647E-13</v>
       </c>
       <c r="E143" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F143" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G143" t="s">
-        <v>681</v>
+        <v>683</v>
+      </c>
+      <c r="H143" t="s">
+        <v>724</v>
+      </c>
+      <c r="I143" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B144" t="n">
         <v>-1.6599575699718787</v>
@@ -5571,18 +6900,24 @@
         <v>7.351328640133858E-6</v>
       </c>
       <c r="E144" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F144" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G144" t="s">
-        <v>682</v>
+        <v>684</v>
+      </c>
+      <c r="H144" t="s">
+        <v>729</v>
+      </c>
+      <c r="I144" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B145" t="n">
         <v>-1.5925743147920857</v>
@@ -5594,18 +6929,24 @@
         <v>5.292987992150104E-5</v>
       </c>
       <c r="E145" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F145" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G145" t="s">
-        <v>683</v>
+        <v>685</v>
+      </c>
+      <c r="H145" t="s">
+        <v>724</v>
+      </c>
+      <c r="I145" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B146" t="n">
         <v>-1.0061762374444003</v>
@@ -5617,18 +6958,24 @@
         <v>7.69515864678017E-5</v>
       </c>
       <c r="E146" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F146" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G146" t="s">
-        <v>684</v>
+        <v>686</v>
+      </c>
+      <c r="H146" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I146" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B147" t="n">
         <v>1.2114805522483627</v>
@@ -5640,18 +6987,24 @@
         <v>1.3347268172704942E-5</v>
       </c>
       <c r="E147" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F147" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G147" t="s">
-        <v>685</v>
+        <v>687</v>
+      </c>
+      <c r="H147" t="s">
+        <v>768</v>
+      </c>
+      <c r="I147" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B148" t="n">
         <v>-1.019310105963922</v>
@@ -5663,18 +7016,24 @@
         <v>1.6731767939551936E-9</v>
       </c>
       <c r="E148" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F148" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G148" t="s">
-        <v>686</v>
+        <v>688</v>
+      </c>
+      <c r="H148" t="s">
+        <v>781</v>
+      </c>
+      <c r="I148" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B149" t="n">
         <v>-1.0289267761483543</v>
@@ -5694,10 +7053,16 @@
       <c r="G149" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I149" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B150" t="n">
         <v>-1.6933209176131538</v>
@@ -5717,10 +7082,16 @@
       <c r="G150" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H150" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I150" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B151" t="n">
         <v>-1.1625877554095392</v>
@@ -5740,10 +7111,16 @@
       <c r="G151" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H151" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I151" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B152" t="n">
         <v>2.5430007196655486</v>
@@ -5755,18 +7132,24 @@
         <v>1.5862268203971667E-4</v>
       </c>
       <c r="E152" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F152" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G152" t="s">
-        <v>687</v>
+        <v>689</v>
+      </c>
+      <c r="H152" t="s">
+        <v>782</v>
+      </c>
+      <c r="I152" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B153" t="n">
         <v>-1.7924654529631032</v>
@@ -5778,18 +7161,24 @@
         <v>2.5742688745455867E-6</v>
       </c>
       <c r="E153" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F153" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G153" t="s">
-        <v>688</v>
+        <v>690</v>
+      </c>
+      <c r="H153" t="s">
+        <v>783</v>
+      </c>
+      <c r="I153" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B154" t="n">
         <v>1.008877925172322</v>
@@ -5809,10 +7198,16 @@
       <c r="G154" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I154" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B155" t="n">
         <v>-1.1703742591856872</v>
@@ -5832,10 +7227,16 @@
       <c r="G155" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I155" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B156" t="n">
         <v>-1.2436452066037829</v>
@@ -5855,10 +7256,16 @@
       <c r="G156" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H156" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I156" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B157" t="n">
         <v>-1.6537442563790612</v>
@@ -5878,10 +7285,16 @@
       <c r="G157" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H157" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I157" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B158" t="n">
         <v>-1.0116596733434537</v>
@@ -5901,10 +7314,16 @@
       <c r="G158" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H158" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I158" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B159" t="n">
         <v>-1.3414829865775324</v>
@@ -5924,10 +7343,16 @@
       <c r="G159" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H159" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I159" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B160" t="n">
         <v>-1.0216994659311807</v>
@@ -5947,10 +7372,16 @@
       <c r="G160" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H160" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I160" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B161" t="n">
         <v>-1.2862544700483802</v>
@@ -5970,10 +7401,16 @@
       <c r="G161" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I161" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B162" t="n">
         <v>-1.2307314858867329</v>
@@ -5993,10 +7430,16 @@
       <c r="G162" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H162" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I162" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B163" t="n">
         <v>-1.193529722529506</v>
@@ -6008,18 +7451,24 @@
         <v>2.637862106845896E-4</v>
       </c>
       <c r="E163" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F163" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="G163" t="s">
-        <v>689</v>
+        <v>691</v>
+      </c>
+      <c r="H163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I163" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B164" t="n">
         <v>-1.4026081463120543</v>
@@ -6031,18 +7480,24 @@
         <v>1.07020949876187E-6</v>
       </c>
       <c r="E164" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F164" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="G164" t="s">
-        <v>690</v>
+        <v>692</v>
+      </c>
+      <c r="H164" t="s">
+        <v>724</v>
+      </c>
+      <c r="I164" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B165" t="n">
         <v>-3.3390944726037897</v>
@@ -6062,10 +7517,16 @@
       <c r="G165" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I165" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B166" t="n">
         <v>-1.2306777607826138</v>
@@ -6085,10 +7546,16 @@
       <c r="G166" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I166" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B167" t="n">
         <v>-1.0732246402671057</v>
@@ -6100,18 +7567,24 @@
         <v>1.1150670798174441E-5</v>
       </c>
       <c r="E167" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F167" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="G167" t="s">
-        <v>691</v>
+        <v>693</v>
+      </c>
+      <c r="H167" t="s">
+        <v>784</v>
+      </c>
+      <c r="I167" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B168" t="n">
         <v>-1.0941626093412304</v>
@@ -6123,18 +7596,24 @@
         <v>2.5816033586272897E-5</v>
       </c>
       <c r="E168" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F168" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G168" t="s">
-        <v>692</v>
+        <v>694</v>
+      </c>
+      <c r="H168" t="s">
+        <v>724</v>
+      </c>
+      <c r="I168" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B169" t="n">
         <v>1.3763344230583217</v>
@@ -6154,10 +7633,16 @@
       <c r="G169" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I169" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B170" t="n">
         <v>-1.0025918629503134</v>
@@ -6177,10 +7662,16 @@
       <c r="G170" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H170" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I170" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B171" t="n">
         <v>-1.4138637067744082</v>
@@ -6192,18 +7683,24 @@
         <v>1.8040724467535009E-9</v>
       </c>
       <c r="E171" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F171" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G171" t="s">
-        <v>693</v>
+        <v>695</v>
+      </c>
+      <c r="H171" t="s">
+        <v>724</v>
+      </c>
+      <c r="I171" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B172" t="n">
         <v>-1.5365546190319515</v>
@@ -6215,18 +7712,24 @@
         <v>7.650005872805614E-14</v>
       </c>
       <c r="E172" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F172" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G172" t="s">
-        <v>694</v>
+        <v>696</v>
+      </c>
+      <c r="H172" t="s">
+        <v>724</v>
+      </c>
+      <c r="I172" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B173" t="n">
         <v>1.1983753827360009</v>
@@ -6238,18 +7741,24 @@
         <v>2.3977605171099694E-10</v>
       </c>
       <c r="E173" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F173" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G173" t="s">
-        <v>695</v>
+        <v>697</v>
+      </c>
+      <c r="H173" t="s">
+        <v>724</v>
+      </c>
+      <c r="I173" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B174" t="n">
         <v>-1.2058546074151015</v>
@@ -6269,10 +7778,16 @@
       <c r="G174" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H174" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I174" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B175" t="n">
         <v>1.3528395564334834</v>
@@ -6284,18 +7799,24 @@
         <v>7.558653601330901E-14</v>
       </c>
       <c r="E175" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F175" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G175" t="s">
-        <v>696</v>
+        <v>698</v>
+      </c>
+      <c r="H175" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I175" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B176" t="n">
         <v>-1.1087497820622767</v>
@@ -6307,18 +7828,24 @@
         <v>1.1492770276195944E-5</v>
       </c>
       <c r="E176" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F176" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="G176" t="s">
-        <v>697</v>
+        <v>699</v>
+      </c>
+      <c r="H176" t="s">
+        <v>771</v>
+      </c>
+      <c r="I176" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B177" t="n">
         <v>-1.613789958307808</v>
@@ -6330,18 +7857,24 @@
         <v>2.7849485257217572E-12</v>
       </c>
       <c r="E177" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F177" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G177" t="s">
-        <v>698</v>
+        <v>700</v>
+      </c>
+      <c r="H177" t="s">
+        <v>785</v>
+      </c>
+      <c r="I177" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B178" t="n">
         <v>-1.045949922324186</v>
@@ -6361,10 +7894,16 @@
       <c r="G178" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H178" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I178" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B179" t="n">
         <v>1.9908728261446706</v>
@@ -6384,10 +7923,16 @@
       <c r="G179" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H179" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I179" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B180" t="n">
         <v>-1.0472229972418319</v>
@@ -6407,10 +7952,16 @@
       <c r="G180" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H180" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I180" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B181" t="n">
         <v>1.1024888134453281</v>
@@ -6422,18 +7973,24 @@
         <v>1.447293506153882E-7</v>
       </c>
       <c r="E181" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F181" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G181" t="s">
-        <v>699</v>
+        <v>701</v>
+      </c>
+      <c r="H181" t="s">
+        <v>786</v>
+      </c>
+      <c r="I181" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B182" t="n">
         <v>-1.2888740150478695</v>
@@ -6445,18 +8002,24 @@
         <v>1.0530174384316666E-13</v>
       </c>
       <c r="E182" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F182" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G182" t="s">
-        <v>700</v>
+        <v>702</v>
+      </c>
+      <c r="H182" t="s">
+        <v>787</v>
+      </c>
+      <c r="I182" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B183" t="n">
         <v>-1.079746228624431</v>
@@ -6468,18 +8031,24 @@
         <v>1.3986861640077788E-6</v>
       </c>
       <c r="E183" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F183" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="G183" t="s">
-        <v>701</v>
+        <v>703</v>
+      </c>
+      <c r="H183" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I183" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B184" t="n">
         <v>-1.3290659330920505</v>
@@ -6491,18 +8060,24 @@
         <v>2.4090258521592095E-8</v>
       </c>
       <c r="E184" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F184" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G184" t="s">
-        <v>702</v>
+        <v>704</v>
+      </c>
+      <c r="H184" t="s">
+        <v>724</v>
+      </c>
+      <c r="I184" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B185" t="n">
         <v>-1.2721109507607329</v>
@@ -6522,10 +8097,16 @@
       <c r="G185" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H185" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I185" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B186" t="n">
         <v>-1.1323797064878633</v>
@@ -6545,10 +8126,16 @@
       <c r="G186" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H186" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I186" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B187" t="n">
         <v>-1.0024191989073303</v>
@@ -6560,18 +8147,24 @@
         <v>6.640783361127107E-4</v>
       </c>
       <c r="E187" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F187" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="G187" t="s">
-        <v>703</v>
+        <v>705</v>
+      </c>
+      <c r="H187" t="s">
+        <v>724</v>
+      </c>
+      <c r="I187" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B188" t="n">
         <v>-1.0016961374817743</v>
@@ -6583,18 +8176,24 @@
         <v>8.292914296577572E-5</v>
       </c>
       <c r="E188" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F188" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G188" t="s">
-        <v>704</v>
+        <v>706</v>
+      </c>
+      <c r="H188" t="s">
+        <v>771</v>
+      </c>
+      <c r="I188" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B189" t="n">
         <v>-1.0453436757677759</v>
@@ -6614,10 +8213,16 @@
       <c r="G189" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H189" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I189" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B190" t="n">
         <v>-1.2267591297793685</v>
@@ -6629,18 +8234,24 @@
         <v>2.648597778971828E-7</v>
       </c>
       <c r="E190" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F190" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G190" t="s">
-        <v>705</v>
+        <v>707</v>
+      </c>
+      <c r="H190" t="s">
+        <v>724</v>
+      </c>
+      <c r="I190" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B191" t="n">
         <v>-1.2963090560573056</v>
@@ -6652,18 +8263,24 @@
         <v>8.330266566030068E-11</v>
       </c>
       <c r="E191" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F191" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G191" t="s">
-        <v>706</v>
+        <v>708</v>
+      </c>
+      <c r="H191" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I191" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B192" t="n">
         <v>-1.2117416115340112</v>
@@ -6683,10 +8300,16 @@
       <c r="G192" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H192" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I192" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B193" t="n">
         <v>-1.1242867292297305</v>
@@ -6706,10 +8329,16 @@
       <c r="G193" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H193" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I193" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B194" t="n">
         <v>-1.3544239967017344</v>
@@ -6729,10 +8358,16 @@
       <c r="G194" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H194" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I194" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B195" t="n">
         <v>-1.0666197031948708</v>
@@ -6752,10 +8387,16 @@
       <c r="G195" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H195" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I195" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B196" t="n">
         <v>-1.0000802376037055</v>
@@ -6767,18 +8408,24 @@
         <v>6.454208680296902E-4</v>
       </c>
       <c r="E196" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F196" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G196" t="s">
-        <v>707</v>
+        <v>709</v>
+      </c>
+      <c r="H196" t="s">
+        <v>788</v>
+      </c>
+      <c r="I196" t="s">
+        <v>866</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B197" t="n">
         <v>-1.0285278431236686</v>
@@ -6798,10 +8445,16 @@
       <c r="G197" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H197" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I197" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B198" t="n">
         <v>-2.316018408019391</v>
@@ -6821,10 +8474,16 @@
       <c r="G198" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H198" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I198" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B199" t="n">
         <v>-1.4708941587635125</v>
@@ -6844,10 +8503,16 @@
       <c r="G199" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H199" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I199" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B200" t="n">
         <v>-1.1303005982264231</v>
@@ -6867,10 +8532,16 @@
       <c r="G200" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H200" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I200" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B201" t="n">
         <v>2.558633821557685</v>
@@ -6890,10 +8561,16 @@
       <c r="G201" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H201" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I201" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B202" t="n">
         <v>-1.0550860110564466</v>
@@ -6913,10 +8590,16 @@
       <c r="G202" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H202" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I202" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B203" t="n">
         <v>-1.3547200244352327</v>
@@ -6928,18 +8611,24 @@
         <v>2.8534029409989835E-13</v>
       </c>
       <c r="E203" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F203" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G203" t="s">
-        <v>708</v>
+        <v>710</v>
+      </c>
+      <c r="H203" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I203" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B204" t="n">
         <v>-1.0702814059860983</v>
@@ -6959,10 +8648,16 @@
       <c r="G204" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H204" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I204" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B205" t="n">
         <v>-1.9103040717378332</v>
@@ -6982,10 +8677,16 @@
       <c r="G205" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H205" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I205" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B206" t="n">
         <v>-1.3558811350869249</v>
@@ -7005,10 +8706,16 @@
       <c r="G206" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H206" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I206" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B207" t="n">
         <v>-1.296741133326476</v>
@@ -7028,10 +8735,16 @@
       <c r="G207" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H207" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I207" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B208" t="n">
         <v>-1.2166483934954548</v>
@@ -7043,18 +8756,24 @@
         <v>2.4418800996688746E-6</v>
       </c>
       <c r="E208" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F208" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G208" t="s">
-        <v>709</v>
+        <v>711</v>
+      </c>
+      <c r="H208" t="s">
+        <v>724</v>
+      </c>
+      <c r="I208" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B209" t="n">
         <v>-1.047591860758962</v>
@@ -7074,10 +8793,16 @@
       <c r="G209" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H209" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I209" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B210" t="n">
         <v>-1.0692984913882577</v>
@@ -7097,10 +8822,16 @@
       <c r="G210" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H210" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I210" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B211" t="n">
         <v>-1.4349857528016496</v>
@@ -7120,10 +8851,16 @@
       <c r="G211" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H211" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I211" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B212" t="n">
         <v>-1.0018723045128253</v>
@@ -7143,10 +8880,16 @@
       <c r="G212" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H212" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I212" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B213" t="n">
         <v>-2.1139986528423633</v>
@@ -7166,10 +8909,16 @@
       <c r="G213" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H213" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I213" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B214" t="n">
         <v>-1.023923382518365</v>
@@ -7189,10 +8938,16 @@
       <c r="G214" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H214" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I214" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B215" t="n">
         <v>-1.17869154896362</v>
@@ -7212,10 +8967,16 @@
       <c r="G215" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H215" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I215" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B216" t="n">
         <v>-1.3257584030313414</v>
@@ -7235,10 +8996,16 @@
       <c r="G216" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H216" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I216" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B217" t="n">
         <v>-1.1984764355993625</v>
@@ -7258,10 +9025,16 @@
       <c r="G217" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H217" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I217" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B218" t="n">
         <v>-1.3528944654198654</v>
@@ -7281,10 +9054,16 @@
       <c r="G218" t="e">
         <v>#N/A</v>
       </c>
+      <c r="H218" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I218" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B219" t="n">
         <v>-1.1560954517676636</v>
@@ -7303,6 +9082,12 @@
       </c>
       <c r="G219" t="e">
         <v>#N/A</v>
+      </c>
+      <c r="H219" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I219" t="s">
+        <v>840</v>
       </c>
     </row>
   </sheetData>
